--- a/Tasks/QlicTaskReport.xlsx
+++ b/Tasks/QlicTaskReport.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEM 2\Computer Science\Labs\Lab3\Project Reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t xml:space="preserve">Names of people working </t>
   </si>
@@ -84,13 +79,22 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Class Creation done (see src) and manager in progress</t>
+  </si>
+  <si>
+    <t>Class Creation done (see src) and manager in progress (group with Customer)</t>
+  </si>
+  <si>
+    <t>Thomas, Yamid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,7 +253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,31 +430,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,7 +471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -478,7 +482,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -495,7 +499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -512,16 +516,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="N7" t="s">
         <v>19</v>
       </c>
@@ -529,18 +539,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -551,7 +567,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -562,7 +578,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -573,7 +589,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>

--- a/Tasks/QlicTaskReport.xlsx
+++ b/Tasks/QlicTaskReport.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wajahat Akhtar\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t xml:space="preserve">Names of people working </t>
   </si>
@@ -81,20 +86,17 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Class Creation done (see src) and manager in progress</t>
-  </si>
-  <si>
-    <t>Class Creation done (see src) and manager in progress (group with Customer)</t>
-  </si>
-  <si>
-    <t>Thomas, Yamid</t>
+    <t>Product class is almost done just have to conect with data working on Product Manager class</t>
+  </si>
+  <si>
+    <t>Wajahat and Archibald</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,7 +220,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,7 +255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,31 +432,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="69" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -471,18 +473,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -499,7 +507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -516,22 +524,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="N7" t="s">
         <v>19</v>
       </c>
@@ -539,24 +541,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -567,7 +563,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -578,7 +574,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -589,7 +585,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>

--- a/Tasks/QlicTaskReport.xlsx
+++ b/Tasks/QlicTaskReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wajahat Akhtar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wajahat Akhtar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t xml:space="preserve">Names of people working </t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Wajahat and Archibald</t>
+  </si>
+  <si>
+    <t>Thomas, Yamid</t>
+  </si>
+  <si>
+    <t>Class Creation done (see src) and manager in progress</t>
+  </si>
+  <si>
+    <t>Class Creation done (see src) and manager in progress (group with Customer)</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
   <dimension ref="A3:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,12 +537,18 @@
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="N7" t="s">
         <v>19</v>
       </c>
@@ -545,12 +560,18 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">

--- a/Tasks/QlicTaskReport.xlsx
+++ b/Tasks/QlicTaskReport.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wajahat Akhtar\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -95,17 +90,17 @@
     <t>Thomas, Yamid</t>
   </si>
   <si>
-    <t>Class Creation done (see src) and manager in progress</t>
-  </si>
-  <si>
-    <t>Class Creation done (see src) and manager in progress (group with Customer)</t>
+    <t>Class Creation done (see src) and manager almost finish (not sure about some functions and it misses the connection with the database) if you can check my code to tell me my mistake…</t>
+  </si>
+  <si>
+    <t>Class Creation done (see src) and manager in progress (group with Customer and upload by Yamid later)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +259,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,21 +436,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
@@ -465,7 +460,7 @@
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -482,7 +477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -499,7 +494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -516,7 +511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -533,7 +528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -556,7 +551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -573,7 +568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -584,7 +579,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -595,7 +590,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -606,7 +601,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>

--- a/Tasks/QlicTaskReport.xlsx
+++ b/Tasks/QlicTaskReport.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamidespinel/Documents/BSc Computer Vision/computer science/QlicProject/Tasks/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25120" windowHeight="9760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -93,14 +101,14 @@
     <t>Class Creation done (see src) and manager almost finish (not sure about some functions and it misses the connection with the database) if you can check my code to tell me my mistake…</t>
   </si>
   <si>
-    <t>Class Creation done (see src) and manager in progress (group with Customer and upload by Yamid later)</t>
+    <t>Class Creation done (see src) and manager almost finish (missing connection with database)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,31 +444,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="45.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,7 +485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -494,7 +502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -511,7 +519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -528,7 +536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -551,7 +559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -568,7 +576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -579,7 +587,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -590,7 +598,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -601,7 +609,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
